--- a/user-data/income-share-by-quintile/income-share-by-quintile.xlsx
+++ b/user-data/income-share-by-quintile/income-share-by-quintile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
   <si>
     <t>id</t>
   </si>
@@ -1323,9 +1323,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1705,22 +1702,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11">
@@ -1736,11 +1733,6 @@
     <row r="13">
       <c r="A13" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/income-share-by-quintile/income-share-by-quintile.xlsx
+++ b/user-data/income-share-by-quintile/income-share-by-quintile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
   <si>
     <t>id</t>
   </si>
@@ -1332,7 +1332,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1735,6 +1738,11 @@
         <v>441</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/income-share-by-quintile/income-share-by-quintile.xlsx
+++ b/user-data/income-share-by-quintile/income-share-by-quintile.xlsx
@@ -78,7 +78,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -186,7 +186,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -223,12 +223,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -309,6 +303,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -324,7 +324,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -1002,7 +1002,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1020,7 +1020,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1194,7 +1194,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1218,7 +1218,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1239,16 +1239,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1341,7 +1341,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -9749,21 +9749,11 @@
       <c r="C438" t="n">
         <v>2002</v>
       </c>
-      <c r="D438" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="E438" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="F438" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="G438" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="H438" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="D438"/>
+      <c r="E438"/>
+      <c r="F438"/>
+      <c r="G438"/>
+      <c r="H438"/>
     </row>
     <row r="439">
       <c r="A439" t="s">
@@ -9791,11 +9781,21 @@
       <c r="C440" t="n">
         <v>2004</v>
       </c>
-      <c r="D440"/>
-      <c r="E440"/>
-      <c r="F440"/>
-      <c r="G440"/>
-      <c r="H440"/>
+      <c r="D440" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="E440" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="F440" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="G440" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="H440" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
@@ -9839,11 +9839,21 @@
       <c r="C443" t="n">
         <v>2007</v>
       </c>
-      <c r="D443"/>
-      <c r="E443"/>
-      <c r="F443"/>
-      <c r="G443"/>
-      <c r="H443"/>
+      <c r="D443" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E443" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="F443" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="G443" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="H443" t="n">
+        <v>48.89</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
@@ -9856,19 +9866,19 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>5.19</v>
+        <v>7.85</v>
       </c>
       <c r="E444" t="n">
-        <v>9.61</v>
+        <v>11.6</v>
       </c>
       <c r="F444" t="n">
-        <v>14.54</v>
+        <v>15.67</v>
       </c>
       <c r="G444" t="n">
-        <v>21.71</v>
+        <v>21.43</v>
       </c>
       <c r="H444" t="n">
-        <v>48.95</v>
+        <v>43.45</v>
       </c>
     </row>
     <row r="445">
@@ -9881,11 +9891,21 @@
       <c r="C445" t="n">
         <v>2009</v>
       </c>
-      <c r="D445"/>
-      <c r="E445"/>
-      <c r="F445"/>
-      <c r="G445"/>
-      <c r="H445"/>
+      <c r="D445" t="n">
+        <v>8.03</v>
+      </c>
+      <c r="E445" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F445" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="G445" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="H445" t="n">
+        <v>43.15</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
@@ -9897,11 +9917,21 @@
       <c r="C446" t="n">
         <v>2010</v>
       </c>
-      <c r="D446"/>
-      <c r="E446"/>
-      <c r="F446"/>
-      <c r="G446"/>
-      <c r="H446"/>
+      <c r="D446" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="E446" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F446" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="G446" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="H446" t="n">
+        <v>42.49</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
@@ -9913,11 +9943,21 @@
       <c r="C447" t="n">
         <v>2011</v>
       </c>
-      <c r="D447"/>
-      <c r="E447"/>
-      <c r="F447"/>
-      <c r="G447"/>
-      <c r="H447"/>
+      <c r="D447" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E447" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="F447" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="G447" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="H447" t="n">
+        <v>41.2</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
@@ -9977,11 +10017,21 @@
       <c r="C451" t="n">
         <v>2001</v>
       </c>
-      <c r="D451"/>
-      <c r="E451"/>
-      <c r="F451"/>
-      <c r="G451"/>
-      <c r="H451"/>
+      <c r="D451" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="E451" t="n">
+        <v>9.95</v>
+      </c>
+      <c r="F451" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="G451" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="H451" t="n">
+        <v>48.9</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
@@ -10025,21 +10075,11 @@
       <c r="C454" t="n">
         <v>2004</v>
       </c>
-      <c r="D454" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="E454" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="F454" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="G454" t="n">
-        <v>21.22</v>
-      </c>
-      <c r="H454" t="n">
-        <v>44</v>
-      </c>
+      <c r="D454"/>
+      <c r="E454"/>
+      <c r="F454"/>
+      <c r="G454"/>
+      <c r="H454"/>
     </row>
     <row r="455">
       <c r="A455" t="s">
@@ -10084,19 +10124,19 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>6.95</v>
+        <v>6.35</v>
       </c>
       <c r="E457" t="n">
-        <v>10.05</v>
+        <v>10.03</v>
       </c>
       <c r="F457" t="n">
-        <v>13.95</v>
+        <v>14.5</v>
       </c>
       <c r="G457" t="n">
-        <v>20.16</v>
+        <v>21.43</v>
       </c>
       <c r="H457" t="n">
-        <v>48.89</v>
+        <v>47.69</v>
       </c>
     </row>
     <row r="458">
@@ -10109,21 +10149,11 @@
       <c r="C458" t="n">
         <v>2008</v>
       </c>
-      <c r="D458" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="E458" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F458" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="G458" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="H458" t="n">
-        <v>43.45</v>
-      </c>
+      <c r="D458"/>
+      <c r="E458"/>
+      <c r="F458"/>
+      <c r="G458"/>
+      <c r="H458"/>
     </row>
     <row r="459">
       <c r="A459" t="s">
@@ -10135,21 +10165,11 @@
       <c r="C459" t="n">
         <v>2009</v>
       </c>
-      <c r="D459" t="n">
-        <v>8.03</v>
-      </c>
-      <c r="E459" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F459" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="G459" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="H459" t="n">
-        <v>43.15</v>
-      </c>
+      <c r="D459"/>
+      <c r="E459"/>
+      <c r="F459"/>
+      <c r="G459"/>
+      <c r="H459"/>
     </row>
     <row r="460">
       <c r="A460" t="s">
@@ -10161,21 +10181,11 @@
       <c r="C460" t="n">
         <v>2010</v>
       </c>
-      <c r="D460" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="E460" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F460" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="G460" t="n">
-        <v>21.18</v>
-      </c>
-      <c r="H460" t="n">
-        <v>42.49</v>
-      </c>
+      <c r="D460"/>
+      <c r="E460"/>
+      <c r="F460"/>
+      <c r="G460"/>
+      <c r="H460"/>
     </row>
     <row r="461">
       <c r="A461" t="s">
@@ -10187,21 +10197,11 @@
       <c r="C461" t="n">
         <v>2011</v>
       </c>
-      <c r="D461" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E461" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="F461" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="G461" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="H461" t="n">
-        <v>41.2</v>
-      </c>
+      <c r="D461"/>
+      <c r="E461"/>
+      <c r="F461"/>
+      <c r="G461"/>
+      <c r="H461"/>
     </row>
     <row r="462">
       <c r="A462" t="s">
@@ -10245,11 +10245,21 @@
       <c r="C464" t="n">
         <v>2000</v>
       </c>
-      <c r="D464"/>
-      <c r="E464"/>
-      <c r="F464"/>
-      <c r="G464"/>
-      <c r="H464"/>
+      <c r="D464" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="E464" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F464" t="n">
+        <v>17</v>
+      </c>
+      <c r="G464" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="H464" t="n">
+        <v>40.77</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
@@ -10261,21 +10271,11 @@
       <c r="C465" t="n">
         <v>2001</v>
       </c>
-      <c r="D465" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="E465" t="n">
-        <v>9.95</v>
-      </c>
-      <c r="F465" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="G465" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="H465" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="D465"/>
+      <c r="E465"/>
+      <c r="F465"/>
+      <c r="G465"/>
+      <c r="H465"/>
     </row>
     <row r="466">
       <c r="A466" t="s">
@@ -10319,11 +10319,21 @@
       <c r="C468" t="n">
         <v>2004</v>
       </c>
-      <c r="D468"/>
-      <c r="E468"/>
-      <c r="F468"/>
-      <c r="G468"/>
-      <c r="H468"/>
+      <c r="D468" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="E468" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F468" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="G468" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="H468" t="n">
+        <v>40.97</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
@@ -10368,19 +10378,19 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>6.35</v>
+        <v>7.15</v>
       </c>
       <c r="E471" t="n">
-        <v>10.03</v>
+        <v>12.31</v>
       </c>
       <c r="F471" t="n">
-        <v>14.5</v>
+        <v>16.64</v>
       </c>
       <c r="G471" t="n">
-        <v>21.43</v>
+        <v>22.62</v>
       </c>
       <c r="H471" t="n">
-        <v>47.69</v>
+        <v>41.28</v>
       </c>
     </row>
     <row r="472">
@@ -10425,11 +10435,21 @@
       <c r="C474" t="n">
         <v>2010</v>
       </c>
-      <c r="D474"/>
-      <c r="E474"/>
-      <c r="F474"/>
-      <c r="G474"/>
-      <c r="H474"/>
+      <c r="D474" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E474" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="F474" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="G474" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="H474" t="n">
+        <v>40.98</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
@@ -10489,21 +10509,11 @@
       <c r="C478" t="n">
         <v>2000</v>
       </c>
-      <c r="D478" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="E478" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F478" t="n">
-        <v>17</v>
-      </c>
-      <c r="G478" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="H478" t="n">
-        <v>40.77</v>
-      </c>
+      <c r="D478"/>
+      <c r="E478"/>
+      <c r="F478"/>
+      <c r="G478"/>
+      <c r="H478"/>
     </row>
     <row r="479">
       <c r="A479" t="s">
@@ -10531,11 +10541,21 @@
       <c r="C480" t="n">
         <v>2002</v>
       </c>
-      <c r="D480"/>
-      <c r="E480"/>
-      <c r="F480"/>
-      <c r="G480"/>
-      <c r="H480"/>
+      <c r="D480" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E480" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F480" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="G480" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="H480" t="n">
+        <v>55.9</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -10563,21 +10583,11 @@
       <c r="C482" t="n">
         <v>2004</v>
       </c>
-      <c r="D482" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="E482" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="F482" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="G482" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="H482" t="n">
-        <v>40.97</v>
-      </c>
+      <c r="D482"/>
+      <c r="E482"/>
+      <c r="F482"/>
+      <c r="G482"/>
+      <c r="H482"/>
     </row>
     <row r="483">
       <c r="A483" t="s">
@@ -10621,21 +10631,11 @@
       <c r="C485" t="n">
         <v>2007</v>
       </c>
-      <c r="D485" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="E485" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="F485" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="G485" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="H485" t="n">
-        <v>41.28</v>
-      </c>
+      <c r="D485"/>
+      <c r="E485"/>
+      <c r="F485"/>
+      <c r="G485"/>
+      <c r="H485"/>
     </row>
     <row r="486">
       <c r="A486" t="s">
@@ -10647,11 +10647,21 @@
       <c r="C486" t="n">
         <v>2008</v>
       </c>
-      <c r="D486"/>
-      <c r="E486"/>
-      <c r="F486"/>
-      <c r="G486"/>
-      <c r="H486"/>
+      <c r="D486" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E486" t="n">
+        <v>9.47</v>
+      </c>
+      <c r="F486" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="G486" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="H486" t="n">
+        <v>50.28</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
@@ -10679,21 +10689,11 @@
       <c r="C488" t="n">
         <v>2010</v>
       </c>
-      <c r="D488" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E488" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="F488" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="G488" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="H488" t="n">
-        <v>40.98</v>
-      </c>
+      <c r="D488"/>
+      <c r="E488"/>
+      <c r="F488"/>
+      <c r="G488"/>
+      <c r="H488"/>
     </row>
     <row r="489">
       <c r="A489" t="s">
@@ -10785,21 +10785,11 @@
       <c r="C494" t="n">
         <v>2002</v>
       </c>
-      <c r="D494" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E494" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F494" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="G494" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="H494" t="n">
-        <v>55.9</v>
-      </c>
+      <c r="D494"/>
+      <c r="E494"/>
+      <c r="F494"/>
+      <c r="G494"/>
+      <c r="H494"/>
     </row>
     <row r="495">
       <c r="A495" t="s">
@@ -10811,11 +10801,21 @@
       <c r="C495" t="n">
         <v>2003</v>
       </c>
-      <c r="D495"/>
-      <c r="E495"/>
-      <c r="F495"/>
-      <c r="G495"/>
-      <c r="H495"/>
+      <c r="D495" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E495" t="n">
+        <v>9.38</v>
+      </c>
+      <c r="F495" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="G495" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="H495" t="n">
+        <v>49.4</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
@@ -10892,19 +10892,19 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>5.79</v>
+        <v>3.37</v>
       </c>
       <c r="E500" t="n">
-        <v>9.47</v>
+        <v>6.87</v>
       </c>
       <c r="F500" t="n">
-        <v>13.87</v>
+        <v>11.12</v>
       </c>
       <c r="G500" t="n">
-        <v>20.59</v>
+        <v>18.04</v>
       </c>
       <c r="H500" t="n">
-        <v>50.28</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="501">
@@ -11045,21 +11045,11 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="E509" t="n">
-        <v>9.38</v>
-      </c>
-      <c r="F509" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="G509" t="n">
-        <v>21.72</v>
-      </c>
-      <c r="H509" t="n">
-        <v>49.4</v>
-      </c>
+      <c r="D509"/>
+      <c r="E509"/>
+      <c r="F509"/>
+      <c r="G509"/>
+      <c r="H509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -11135,21 +11125,11 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="E514" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="F514" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="G514" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="H514" t="n">
-        <v>60.6</v>
-      </c>
+      <c r="D514"/>
+      <c r="E514"/>
+      <c r="F514"/>
+      <c r="G514"/>
+      <c r="H514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -11289,11 +11269,21 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
-      <c r="E523"/>
-      <c r="F523"/>
-      <c r="G523"/>
-      <c r="H523"/>
+      <c r="D523" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E523" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F523" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="G523" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="H523" t="n">
+        <v>46.56</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -11417,11 +11407,21 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
-      <c r="E531"/>
-      <c r="F531"/>
-      <c r="G531"/>
-      <c r="H531"/>
+      <c r="D531" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E531" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F531" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="G531" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="H531" t="n">
+        <v>48.71</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -11465,11 +11465,21 @@
       <c r="C534" t="n">
         <v>2000</v>
       </c>
-      <c r="D534"/>
-      <c r="E534"/>
-      <c r="F534"/>
-      <c r="G534"/>
-      <c r="H534"/>
+      <c r="D534" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E534" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F534" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="G534" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="H534" t="n">
+        <v>60.54</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
@@ -11514,19 +11524,19 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>6.26</v>
+        <v>3.83</v>
       </c>
       <c r="E537" t="n">
-        <v>10.4</v>
+        <v>7.23</v>
       </c>
       <c r="F537" t="n">
-        <v>15.03</v>
+        <v>11.08</v>
       </c>
       <c r="G537" t="n">
-        <v>21.75</v>
+        <v>17.74</v>
       </c>
       <c r="H537" t="n">
-        <v>46.56</v>
+        <v>60.12</v>
       </c>
     </row>
     <row r="538">
@@ -11571,11 +11581,21 @@
       <c r="C540" t="n">
         <v>2006</v>
       </c>
-      <c r="D540"/>
-      <c r="E540"/>
-      <c r="F540"/>
-      <c r="G540"/>
-      <c r="H540"/>
+      <c r="D540" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E540" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F540" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="G540" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="H540" t="n">
+        <v>57.43</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
@@ -11619,11 +11639,21 @@
       <c r="C543" t="n">
         <v>2009</v>
       </c>
-      <c r="D543"/>
-      <c r="E543"/>
-      <c r="F543"/>
-      <c r="G543"/>
-      <c r="H543"/>
+      <c r="D543" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E543" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="F543" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="G543" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="H543" t="n">
+        <v>57.68</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
@@ -11652,19 +11682,19 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>4.88</v>
+        <v>4.52</v>
       </c>
       <c r="E545" t="n">
-        <v>9.67</v>
+        <v>8.2</v>
       </c>
       <c r="F545" t="n">
-        <v>14.76</v>
+        <v>11.87</v>
       </c>
       <c r="G545" t="n">
-        <v>21.98</v>
+        <v>18.42</v>
       </c>
       <c r="H545" t="n">
-        <v>48.71</v>
+        <v>56.99</v>
       </c>
     </row>
     <row r="546">
@@ -11709,21 +11739,11 @@
       <c r="C548" t="n">
         <v>2000</v>
       </c>
-      <c r="D548" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="E548" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="F548" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="G548" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="H548" t="n">
-        <v>60.54</v>
-      </c>
+      <c r="D548"/>
+      <c r="E548"/>
+      <c r="F548"/>
+      <c r="G548"/>
+      <c r="H548"/>
     </row>
     <row r="549">
       <c r="A549" t="s">
@@ -11751,11 +11771,21 @@
       <c r="C550" t="n">
         <v>2002</v>
       </c>
-      <c r="D550"/>
-      <c r="E550"/>
-      <c r="F550"/>
-      <c r="G550"/>
-      <c r="H550"/>
+      <c r="D550" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E550" t="n">
+        <v>9.37</v>
+      </c>
+      <c r="F550" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="G550" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="H550" t="n">
+        <v>48.64</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
@@ -11767,21 +11797,11 @@
       <c r="C551" t="n">
         <v>2003</v>
       </c>
-      <c r="D551" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="E551" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="F551" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="G551" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="H551" t="n">
-        <v>60.12</v>
-      </c>
+      <c r="D551"/>
+      <c r="E551"/>
+      <c r="F551"/>
+      <c r="G551"/>
+      <c r="H551"/>
     </row>
     <row r="552">
       <c r="A552" t="s">
@@ -11809,11 +11829,21 @@
       <c r="C553" t="n">
         <v>2005</v>
       </c>
-      <c r="D553"/>
-      <c r="E553"/>
-      <c r="F553"/>
-      <c r="G553"/>
-      <c r="H553"/>
+      <c r="D553" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E553" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F553" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="G553" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="H553" t="n">
+        <v>47.93</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
@@ -11825,21 +11855,11 @@
       <c r="C554" t="n">
         <v>2006</v>
       </c>
-      <c r="D554" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="E554" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F554" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="G554" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="H554" t="n">
-        <v>57.43</v>
-      </c>
+      <c r="D554"/>
+      <c r="E554"/>
+      <c r="F554"/>
+      <c r="G554"/>
+      <c r="H554"/>
     </row>
     <row r="555">
       <c r="A555" t="s">
@@ -11867,11 +11887,21 @@
       <c r="C556" t="n">
         <v>2008</v>
       </c>
-      <c r="D556"/>
-      <c r="E556"/>
-      <c r="F556"/>
-      <c r="G556"/>
-      <c r="H556"/>
+      <c r="D556" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E556" t="n">
+        <v>9.64</v>
+      </c>
+      <c r="F556" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="G556" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H556" t="n">
+        <v>47.87</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
@@ -11883,21 +11913,11 @@
       <c r="C557" t="n">
         <v>2009</v>
       </c>
-      <c r="D557" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E557" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="F557" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="G557" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="H557" t="n">
-        <v>57.68</v>
-      </c>
+      <c r="D557"/>
+      <c r="E557"/>
+      <c r="F557"/>
+      <c r="G557"/>
+      <c r="H557"/>
     </row>
     <row r="558">
       <c r="A558" t="s">
@@ -11909,11 +11929,21 @@
       <c r="C558" t="n">
         <v>2010</v>
       </c>
-      <c r="D558"/>
-      <c r="E558"/>
-      <c r="F558"/>
-      <c r="G558"/>
-      <c r="H558"/>
+      <c r="D558" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="E558" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="F558" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="G558" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="H558" t="n">
+        <v>47.09</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -11925,21 +11955,11 @@
       <c r="C559" t="n">
         <v>2011</v>
       </c>
-      <c r="D559" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="E559" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="F559" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="G559" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="H559" t="n">
-        <v>56.99</v>
-      </c>
+      <c r="D559"/>
+      <c r="E559"/>
+      <c r="F559"/>
+      <c r="G559"/>
+      <c r="H559"/>
     </row>
     <row r="560">
       <c r="A560" t="s">
@@ -11983,11 +12003,21 @@
       <c r="C562" t="n">
         <v>2000</v>
       </c>
-      <c r="D562"/>
-      <c r="E562"/>
-      <c r="F562"/>
-      <c r="G562"/>
-      <c r="H562"/>
+      <c r="D562" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E562" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="F562" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="G562" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="H562" t="n">
+        <v>62.24</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
@@ -11999,11 +12029,21 @@
       <c r="C563" t="n">
         <v>2001</v>
       </c>
-      <c r="D563"/>
-      <c r="E563"/>
-      <c r="F563"/>
-      <c r="G563"/>
-      <c r="H563"/>
+      <c r="D563" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E563" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F563" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="G563" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="H563" t="n">
+        <v>61.72</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
@@ -12016,19 +12056,19 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>5.47</v>
+        <v>2.93</v>
       </c>
       <c r="E564" t="n">
-        <v>9.37</v>
+        <v>6.55</v>
       </c>
       <c r="F564" t="n">
-        <v>14.33</v>
+        <v>10.61</v>
       </c>
       <c r="G564" t="n">
-        <v>22.19</v>
+        <v>18.04</v>
       </c>
       <c r="H564" t="n">
-        <v>48.64</v>
+        <v>61.87</v>
       </c>
     </row>
     <row r="565">
@@ -12041,11 +12081,21 @@
       <c r="C565" t="n">
         <v>2003</v>
       </c>
-      <c r="D565"/>
-      <c r="E565"/>
-      <c r="F565"/>
-      <c r="G565"/>
-      <c r="H565"/>
+      <c r="D565" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E565" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="F565" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="G565" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="H565" t="n">
+        <v>59.27</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
@@ -12057,11 +12107,21 @@
       <c r="C566" t="n">
         <v>2004</v>
       </c>
-      <c r="D566"/>
-      <c r="E566"/>
-      <c r="F566"/>
-      <c r="G566"/>
-      <c r="H566"/>
+      <c r="D566" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E566" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="F566" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="G566" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="H566" t="n">
+        <v>60.98</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
@@ -12074,19 +12134,19 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>4.99</v>
+        <v>3.37</v>
       </c>
       <c r="E567" t="n">
-        <v>9.85</v>
+        <v>7.09</v>
       </c>
       <c r="F567" t="n">
-        <v>14.99</v>
+        <v>11.18</v>
       </c>
       <c r="G567" t="n">
-        <v>22.24</v>
+        <v>18.37</v>
       </c>
       <c r="H567" t="n">
-        <v>47.93</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="568">
@@ -12099,11 +12159,21 @@
       <c r="C568" t="n">
         <v>2006</v>
       </c>
-      <c r="D568"/>
-      <c r="E568"/>
-      <c r="F568"/>
-      <c r="G568"/>
-      <c r="H568"/>
+      <c r="D568" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E568" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F568" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="G568" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="H568" t="n">
+        <v>62.57</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
@@ -12115,11 +12185,21 @@
       <c r="C569" t="n">
         <v>2007</v>
       </c>
-      <c r="D569"/>
-      <c r="E569"/>
-      <c r="F569"/>
-      <c r="G569"/>
-      <c r="H569"/>
+      <c r="D569" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E569" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F569" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="G569" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="H569" t="n">
+        <v>62.93</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
@@ -12132,19 +12212,19 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>4.78</v>
+        <v>2.93</v>
       </c>
       <c r="E570" t="n">
-        <v>9.64</v>
+        <v>6.72</v>
       </c>
       <c r="F570" t="n">
-        <v>15.01</v>
+        <v>11.19</v>
       </c>
       <c r="G570" t="n">
-        <v>22.7</v>
+        <v>18.87</v>
       </c>
       <c r="H570" t="n">
-        <v>47.87</v>
+        <v>60.29</v>
       </c>
     </row>
     <row r="571">
@@ -12157,11 +12237,21 @@
       <c r="C571" t="n">
         <v>2009</v>
       </c>
-      <c r="D571"/>
-      <c r="E571"/>
-      <c r="F571"/>
-      <c r="G571"/>
-      <c r="H571"/>
+      <c r="D571" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E571" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="F571" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="G571" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="H571" t="n">
+        <v>60.26</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
@@ -12174,19 +12264,19 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>4.67</v>
+        <v>3.19</v>
       </c>
       <c r="E572" t="n">
-        <v>9.74</v>
+        <v>6.9</v>
       </c>
       <c r="F572" t="n">
-        <v>15.31</v>
+        <v>11.15</v>
       </c>
       <c r="G572" t="n">
-        <v>23.19</v>
+        <v>18.72</v>
       </c>
       <c r="H572" t="n">
-        <v>47.09</v>
+        <v>60.04</v>
       </c>
     </row>
     <row r="573">
@@ -12199,11 +12289,21 @@
       <c r="C573" t="n">
         <v>2011</v>
       </c>
-      <c r="D573"/>
-      <c r="E573"/>
-      <c r="F573"/>
-      <c r="G573"/>
-      <c r="H573"/>
+      <c r="D573" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E573" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="F573" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="G573" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="H573" t="n">
+        <v>58.71</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="s">
@@ -12215,11 +12315,21 @@
       <c r="C574" t="n">
         <v>2012</v>
       </c>
-      <c r="D574"/>
-      <c r="E574"/>
-      <c r="F574"/>
-      <c r="G574"/>
-      <c r="H574"/>
+      <c r="D574" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E574" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="F574" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="G574" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="H574" t="n">
+        <v>57.87</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
@@ -12247,21 +12357,11 @@
       <c r="C576" t="n">
         <v>2000</v>
       </c>
-      <c r="D576" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E576" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="F576" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="G576" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="H576" t="n">
-        <v>62.24</v>
-      </c>
+      <c r="D576"/>
+      <c r="E576"/>
+      <c r="F576"/>
+      <c r="G576"/>
+      <c r="H576"/>
     </row>
     <row r="577">
       <c r="A577" t="s">
@@ -12273,21 +12373,11 @@
       <c r="C577" t="n">
         <v>2001</v>
       </c>
-      <c r="D577" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="E577" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="F577" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="G577" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="H577" t="n">
-        <v>61.72</v>
-      </c>
+      <c r="D577"/>
+      <c r="E577"/>
+      <c r="F577"/>
+      <c r="G577"/>
+      <c r="H577"/>
     </row>
     <row r="578">
       <c r="A578" t="s">
@@ -12299,21 +12389,11 @@
       <c r="C578" t="n">
         <v>2002</v>
       </c>
-      <c r="D578" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="E578" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="F578" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="G578" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="H578" t="n">
-        <v>61.87</v>
-      </c>
+      <c r="D578"/>
+      <c r="E578"/>
+      <c r="F578"/>
+      <c r="G578"/>
+      <c r="H578"/>
     </row>
     <row r="579">
       <c r="A579" t="s">
@@ -12325,21 +12405,11 @@
       <c r="C579" t="n">
         <v>2003</v>
       </c>
-      <c r="D579" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E579" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="F579" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="G579" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="H579" t="n">
-        <v>59.27</v>
-      </c>
+      <c r="D579"/>
+      <c r="E579"/>
+      <c r="F579"/>
+      <c r="G579"/>
+      <c r="H579"/>
     </row>
     <row r="580">
       <c r="A580" t="s">
@@ -12352,19 +12422,19 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="E580" t="n">
-        <v>6.83</v>
+        <v>5.35</v>
       </c>
       <c r="F580" t="n">
-        <v>10.84</v>
+        <v>8.94</v>
       </c>
       <c r="G580" t="n">
-        <v>18.05</v>
+        <v>15.14</v>
       </c>
       <c r="H580" t="n">
-        <v>60.98</v>
+        <v>68.02</v>
       </c>
     </row>
     <row r="581">
@@ -12377,21 +12447,11 @@
       <c r="C581" t="n">
         <v>2005</v>
       </c>
-      <c r="D581" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="E581" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="F581" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="G581" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="H581" t="n">
-        <v>59.99</v>
-      </c>
+      <c r="D581"/>
+      <c r="E581"/>
+      <c r="F581"/>
+      <c r="G581"/>
+      <c r="H581"/>
     </row>
     <row r="582">
       <c r="A582" t="s">
@@ -12403,21 +12463,11 @@
       <c r="C582" t="n">
         <v>2006</v>
       </c>
-      <c r="D582" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="E582" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="F582" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="G582" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="H582" t="n">
-        <v>62.57</v>
-      </c>
+      <c r="D582"/>
+      <c r="E582"/>
+      <c r="F582"/>
+      <c r="G582"/>
+      <c r="H582"/>
     </row>
     <row r="583">
       <c r="A583" t="s">
@@ -12429,21 +12479,11 @@
       <c r="C583" t="n">
         <v>2007</v>
       </c>
-      <c r="D583" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E583" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F583" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="G583" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="H583" t="n">
-        <v>62.93</v>
-      </c>
+      <c r="D583"/>
+      <c r="E583"/>
+      <c r="F583"/>
+      <c r="G583"/>
+      <c r="H583"/>
     </row>
     <row r="584">
       <c r="A584" t="s">
@@ -12455,21 +12495,11 @@
       <c r="C584" t="n">
         <v>2008</v>
       </c>
-      <c r="D584" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="E584" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="F584" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="G584" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="H584" t="n">
-        <v>60.29</v>
-      </c>
+      <c r="D584"/>
+      <c r="E584"/>
+      <c r="F584"/>
+      <c r="G584"/>
+      <c r="H584"/>
     </row>
     <row r="585">
       <c r="A585" t="s">
@@ -12481,21 +12511,11 @@
       <c r="C585" t="n">
         <v>2009</v>
       </c>
-      <c r="D585" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E585" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="F585" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="G585" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="H585" t="n">
-        <v>60.26</v>
-      </c>
+      <c r="D585"/>
+      <c r="E585"/>
+      <c r="F585"/>
+      <c r="G585"/>
+      <c r="H585"/>
     </row>
     <row r="586">
       <c r="A586" t="s">
@@ -12507,21 +12527,11 @@
       <c r="C586" t="n">
         <v>2010</v>
       </c>
-      <c r="D586" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="E586" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F586" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="G586" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="H586" t="n">
-        <v>60.04</v>
-      </c>
+      <c r="D586"/>
+      <c r="E586"/>
+      <c r="F586"/>
+      <c r="G586"/>
+      <c r="H586"/>
     </row>
     <row r="587">
       <c r="A587" t="s">
@@ -12533,21 +12543,11 @@
       <c r="C587" t="n">
         <v>2011</v>
       </c>
-      <c r="D587" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="E587" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="F587" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="G587" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="H587" t="n">
-        <v>58.71</v>
-      </c>
+      <c r="D587"/>
+      <c r="E587"/>
+      <c r="F587"/>
+      <c r="G587"/>
+      <c r="H587"/>
     </row>
     <row r="588">
       <c r="A588" t="s">
@@ -12559,21 +12559,11 @@
       <c r="C588" t="n">
         <v>2012</v>
       </c>
-      <c r="D588" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E588" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="F588" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="G588" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="H588" t="n">
-        <v>57.87</v>
-      </c>
+      <c r="D588"/>
+      <c r="E588"/>
+      <c r="F588"/>
+      <c r="G588"/>
+      <c r="H588"/>
     </row>
     <row r="589">
       <c r="A589" t="s">
@@ -12665,21 +12655,11 @@
       <c r="C594" t="n">
         <v>2004</v>
       </c>
-      <c r="D594" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E594" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="F594" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="G594" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="H594" t="n">
-        <v>68.02</v>
-      </c>
+      <c r="D594"/>
+      <c r="E594"/>
+      <c r="F594"/>
+      <c r="G594"/>
+      <c r="H594"/>
     </row>
     <row r="595">
       <c r="A595" t="s">
@@ -12691,11 +12671,21 @@
       <c r="C595" t="n">
         <v>2005</v>
       </c>
-      <c r="D595"/>
-      <c r="E595"/>
-      <c r="F595"/>
-      <c r="G595"/>
-      <c r="H595"/>
+      <c r="D595" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E595" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="F595" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="G595" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="H595" t="n">
+        <v>53.14</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
@@ -12787,11 +12777,21 @@
       <c r="C601" t="n">
         <v>2011</v>
       </c>
-      <c r="D601"/>
-      <c r="E601"/>
-      <c r="F601"/>
-      <c r="G601"/>
-      <c r="H601"/>
+      <c r="D601" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E601" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="F601" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="G601" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="H601" t="n">
+        <v>45.88</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="s">
@@ -12835,11 +12835,21 @@
       <c r="C604" t="n">
         <v>2000</v>
       </c>
-      <c r="D604"/>
-      <c r="E604"/>
-      <c r="F604"/>
-      <c r="G604"/>
-      <c r="H604"/>
+      <c r="D604" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E604" t="n">
+        <v>8.86</v>
+      </c>
+      <c r="F604" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="G604" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="H604" t="n">
+        <v>52.12</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
@@ -12851,11 +12861,21 @@
       <c r="C605" t="n">
         <v>2001</v>
       </c>
-      <c r="D605"/>
-      <c r="E605"/>
-      <c r="F605"/>
-      <c r="G605"/>
-      <c r="H605"/>
+      <c r="D605" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E605" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="F605" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="G605" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H605" t="n">
+        <v>55.53</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
@@ -12867,11 +12887,21 @@
       <c r="C606" t="n">
         <v>2002</v>
       </c>
-      <c r="D606"/>
-      <c r="E606"/>
-      <c r="F606"/>
-      <c r="G606"/>
-      <c r="H606"/>
+      <c r="D606" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E606" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F606" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="G606" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="H606" t="n">
+        <v>55.48</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
@@ -12883,11 +12913,21 @@
       <c r="C607" t="n">
         <v>2003</v>
       </c>
-      <c r="D607"/>
-      <c r="E607"/>
-      <c r="F607"/>
-      <c r="G607"/>
-      <c r="H607"/>
+      <c r="D607" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E607" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F607" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="G607" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="H607" t="n">
+        <v>54.28</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
@@ -12899,11 +12939,21 @@
       <c r="C608" t="n">
         <v>2004</v>
       </c>
-      <c r="D608"/>
-      <c r="E608"/>
-      <c r="F608"/>
-      <c r="G608"/>
-      <c r="H608"/>
+      <c r="D608" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E608" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="F608" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="G608" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="H608" t="n">
+        <v>53.64</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
@@ -12916,19 +12966,19 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>4.96</v>
+        <v>4.05</v>
       </c>
       <c r="E609" t="n">
-        <v>8.44</v>
+        <v>8.71</v>
       </c>
       <c r="F609" t="n">
-        <v>13.01</v>
+        <v>13.32</v>
       </c>
       <c r="G609" t="n">
-        <v>20.45</v>
+        <v>21.06</v>
       </c>
       <c r="H609" t="n">
-        <v>53.14</v>
+        <v>52.86</v>
       </c>
     </row>
     <row r="610">
@@ -12941,11 +12991,21 @@
       <c r="C610" t="n">
         <v>2006</v>
       </c>
-      <c r="D610"/>
-      <c r="E610"/>
-      <c r="F610"/>
-      <c r="G610"/>
-      <c r="H610"/>
+      <c r="D610" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E610" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="F610" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="G610" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="H610" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
@@ -12957,11 +13017,21 @@
       <c r="C611" t="n">
         <v>2007</v>
       </c>
-      <c r="D611"/>
-      <c r="E611"/>
-      <c r="F611"/>
-      <c r="G611"/>
-      <c r="H611"/>
+      <c r="D611" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E611" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F611" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="G611" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="H611" t="n">
+        <v>54.94</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
@@ -12973,11 +13043,21 @@
       <c r="C612" t="n">
         <v>2008</v>
       </c>
-      <c r="D612"/>
-      <c r="E612"/>
-      <c r="F612"/>
-      <c r="G612"/>
-      <c r="H612"/>
+      <c r="D612" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E612" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="F612" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="G612" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="H612" t="n">
+        <v>54.43</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
@@ -12989,11 +13069,21 @@
       <c r="C613" t="n">
         <v>2009</v>
       </c>
-      <c r="D613"/>
-      <c r="E613"/>
-      <c r="F613"/>
-      <c r="G613"/>
-      <c r="H613"/>
+      <c r="D613" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E613" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="F613" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="G613" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="H613" t="n">
+        <v>56.06</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
@@ -13005,11 +13095,21 @@
       <c r="C614" t="n">
         <v>2010</v>
       </c>
-      <c r="D614"/>
-      <c r="E614"/>
-      <c r="F614"/>
-      <c r="G614"/>
-      <c r="H614"/>
+      <c r="D614" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E614" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="F614" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="G614" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="H614" t="n">
+        <v>53.77</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
@@ -13022,19 +13122,19 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>5.61</v>
+        <v>4.25</v>
       </c>
       <c r="E615" t="n">
-        <v>10.29</v>
+        <v>8.3</v>
       </c>
       <c r="F615" t="n">
-        <v>15.48</v>
+        <v>12.88</v>
       </c>
       <c r="G615" t="n">
-        <v>22.74</v>
+        <v>20.69</v>
       </c>
       <c r="H615" t="n">
-        <v>45.88</v>
+        <v>53.88</v>
       </c>
     </row>
     <row r="616">
@@ -13047,11 +13147,21 @@
       <c r="C616" t="n">
         <v>2012</v>
       </c>
-      <c r="D616"/>
-      <c r="E616"/>
-      <c r="F616"/>
-      <c r="G616"/>
-      <c r="H616"/>
+      <c r="D616" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E616" t="n">
+        <v>8.37</v>
+      </c>
+      <c r="F616" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="G616" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="H616" t="n">
+        <v>53.91</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
@@ -13079,21 +13189,11 @@
       <c r="C618" t="n">
         <v>2000</v>
       </c>
-      <c r="D618" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E618" t="n">
-        <v>8.86</v>
-      </c>
-      <c r="F618" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="G618" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="H618" t="n">
-        <v>52.12</v>
-      </c>
+      <c r="D618"/>
+      <c r="E618"/>
+      <c r="F618"/>
+      <c r="G618"/>
+      <c r="H618"/>
     </row>
     <row r="619">
       <c r="A619" t="s">
@@ -13105,21 +13205,11 @@
       <c r="C619" t="n">
         <v>2001</v>
       </c>
-      <c r="D619" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="E619" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="F619" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="G619" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="H619" t="n">
-        <v>55.53</v>
-      </c>
+      <c r="D619"/>
+      <c r="E619"/>
+      <c r="F619"/>
+      <c r="G619"/>
+      <c r="H619"/>
     </row>
     <row r="620">
       <c r="A620" t="s">
@@ -13132,19 +13222,19 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>3.42</v>
+        <v>6.19</v>
       </c>
       <c r="E620" t="n">
-        <v>8.09</v>
+        <v>10.19</v>
       </c>
       <c r="F620" t="n">
-        <v>12.77</v>
+        <v>14.57</v>
       </c>
       <c r="G620" t="n">
-        <v>20.24</v>
+        <v>20.85</v>
       </c>
       <c r="H620" t="n">
-        <v>55.48</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="621">
@@ -13157,21 +13247,11 @@
       <c r="C621" t="n">
         <v>2003</v>
       </c>
-      <c r="D621" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E621" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F621" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="G621" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="H621" t="n">
-        <v>54.28</v>
-      </c>
+      <c r="D621"/>
+      <c r="E621"/>
+      <c r="F621"/>
+      <c r="G621"/>
+      <c r="H621"/>
     </row>
     <row r="622">
       <c r="A622" t="s">
@@ -13183,21 +13263,11 @@
       <c r="C622" t="n">
         <v>2004</v>
       </c>
-      <c r="D622" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="E622" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="F622" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="G622" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="H622" t="n">
-        <v>53.64</v>
-      </c>
+      <c r="D622"/>
+      <c r="E622"/>
+      <c r="F622"/>
+      <c r="G622"/>
+      <c r="H622"/>
     </row>
     <row r="623">
       <c r="A623" t="s">
@@ -13209,21 +13279,11 @@
       <c r="C623" t="n">
         <v>2005</v>
       </c>
-      <c r="D623" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E623" t="n">
-        <v>8.71</v>
-      </c>
-      <c r="F623" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="G623" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="H623" t="n">
-        <v>52.86</v>
-      </c>
+      <c r="D623"/>
+      <c r="E623"/>
+      <c r="F623"/>
+      <c r="G623"/>
+      <c r="H623"/>
     </row>
     <row r="624">
       <c r="A624" t="s">
@@ -13235,21 +13295,11 @@
       <c r="C624" t="n">
         <v>2006</v>
       </c>
-      <c r="D624" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E624" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="F624" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="G624" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="H624" t="n">
-        <v>54.5</v>
-      </c>
+      <c r="D624"/>
+      <c r="E624"/>
+      <c r="F624"/>
+      <c r="G624"/>
+      <c r="H624"/>
     </row>
     <row r="625">
       <c r="A625" t="s">
@@ -13261,21 +13311,11 @@
       <c r="C625" t="n">
         <v>2007</v>
       </c>
-      <c r="D625" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="E625" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F625" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="G625" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="H625" t="n">
-        <v>54.94</v>
-      </c>
+      <c r="D625"/>
+      <c r="E625"/>
+      <c r="F625"/>
+      <c r="G625"/>
+      <c r="H625"/>
     </row>
     <row r="626">
       <c r="A626" t="s">
@@ -13288,19 +13328,19 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>4.2</v>
+        <v>5.19</v>
       </c>
       <c r="E626" t="n">
-        <v>8.41</v>
+        <v>9.61</v>
       </c>
       <c r="F626" t="n">
-        <v>12.74</v>
+        <v>14.54</v>
       </c>
       <c r="G626" t="n">
-        <v>20.22</v>
+        <v>21.71</v>
       </c>
       <c r="H626" t="n">
-        <v>54.43</v>
+        <v>48.95</v>
       </c>
     </row>
     <row r="627">
@@ -13313,21 +13353,11 @@
       <c r="C627" t="n">
         <v>2009</v>
       </c>
-      <c r="D627" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="E627" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="F627" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="G627" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="H627" t="n">
-        <v>56.06</v>
-      </c>
+      <c r="D627"/>
+      <c r="E627"/>
+      <c r="F627"/>
+      <c r="G627"/>
+      <c r="H627"/>
     </row>
     <row r="628">
       <c r="A628" t="s">
@@ -13339,21 +13369,11 @@
       <c r="C628" t="n">
         <v>2010</v>
       </c>
-      <c r="D628" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="E628" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="F628" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="G628" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="H628" t="n">
-        <v>53.77</v>
-      </c>
+      <c r="D628"/>
+      <c r="E628"/>
+      <c r="F628"/>
+      <c r="G628"/>
+      <c r="H628"/>
     </row>
     <row r="629">
       <c r="A629" t="s">
@@ -13365,21 +13385,11 @@
       <c r="C629" t="n">
         <v>2011</v>
       </c>
-      <c r="D629" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E629" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="F629" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="G629" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="H629" t="n">
-        <v>53.88</v>
-      </c>
+      <c r="D629"/>
+      <c r="E629"/>
+      <c r="F629"/>
+      <c r="G629"/>
+      <c r="H629"/>
     </row>
     <row r="630">
       <c r="A630" t="s">
@@ -13391,21 +13401,11 @@
       <c r="C630" t="n">
         <v>2012</v>
       </c>
-      <c r="D630" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="E630" t="n">
-        <v>8.37</v>
-      </c>
-      <c r="F630" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="G630" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="H630" t="n">
-        <v>53.91</v>
-      </c>
+      <c r="D630"/>
+      <c r="E630"/>
+      <c r="F630"/>
+      <c r="G630"/>
+      <c r="H630"/>
     </row>
     <row r="631">
       <c r="A631" t="s">
@@ -52735,21 +52735,11 @@
       <c r="C2804" t="n">
         <v>2002</v>
       </c>
-      <c r="D2804" t="n">
-        <v>8.78</v>
-      </c>
-      <c r="E2804" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F2804" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="G2804" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="H2804" t="n">
-        <v>37.98</v>
-      </c>
+      <c r="D2804"/>
+      <c r="E2804"/>
+      <c r="F2804"/>
+      <c r="G2804"/>
+      <c r="H2804"/>
     </row>
     <row r="2805">
       <c r="A2805" t="s">
@@ -52761,21 +52751,11 @@
       <c r="C2805" t="n">
         <v>2003</v>
       </c>
-      <c r="D2805" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E2805" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F2805" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="G2805" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="H2805" t="n">
-        <v>37.98</v>
-      </c>
+      <c r="D2805"/>
+      <c r="E2805"/>
+      <c r="F2805"/>
+      <c r="G2805"/>
+      <c r="H2805"/>
     </row>
     <row r="2806">
       <c r="A2806" t="s">
@@ -52788,19 +52768,19 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>8.79</v>
+        <v>6.51</v>
       </c>
       <c r="E2806" t="n">
-        <v>13.39</v>
+        <v>11.39</v>
       </c>
       <c r="F2806" t="n">
-        <v>17.29</v>
+        <v>15.72</v>
       </c>
       <c r="G2806" t="n">
-        <v>22.67</v>
+        <v>21.95</v>
       </c>
       <c r="H2806" t="n">
-        <v>37.86</v>
+        <v>44.43</v>
       </c>
     </row>
     <row r="2807">
@@ -52813,21 +52793,11 @@
       <c r="C2807" t="n">
         <v>2005</v>
       </c>
-      <c r="D2807" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="E2807" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="F2807" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="G2807" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="H2807" t="n">
-        <v>38</v>
-      </c>
+      <c r="D2807"/>
+      <c r="E2807"/>
+      <c r="F2807"/>
+      <c r="G2807"/>
+      <c r="H2807"/>
     </row>
     <row r="2808">
       <c r="A2808" t="s">
@@ -52839,21 +52809,11 @@
       <c r="C2808" t="n">
         <v>2006</v>
       </c>
-      <c r="D2808" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="E2808" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="F2808" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="G2808" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="H2808" t="n">
-        <v>38.61</v>
-      </c>
+      <c r="D2808"/>
+      <c r="E2808"/>
+      <c r="F2808"/>
+      <c r="G2808"/>
+      <c r="H2808"/>
     </row>
     <row r="2809">
       <c r="A2809" t="s">
@@ -52866,19 +52826,19 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>8.77</v>
+        <v>5.65</v>
       </c>
       <c r="E2809" t="n">
-        <v>13.12</v>
+        <v>11.36</v>
       </c>
       <c r="F2809" t="n">
-        <v>17.15</v>
+        <v>16.3</v>
       </c>
       <c r="G2809" t="n">
-        <v>22.37</v>
+        <v>22.76</v>
       </c>
       <c r="H2809" t="n">
-        <v>38.59</v>
+        <v>43.93</v>
       </c>
     </row>
     <row r="2810">
@@ -52891,21 +52851,11 @@
       <c r="C2810" t="n">
         <v>2008</v>
       </c>
-      <c r="D2810" t="n">
-        <v>9.63</v>
-      </c>
-      <c r="E2810" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="F2810" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="G2810" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="H2810" t="n">
-        <v>36.38</v>
-      </c>
+      <c r="D2810"/>
+      <c r="E2810"/>
+      <c r="F2810"/>
+      <c r="G2810"/>
+      <c r="H2810"/>
     </row>
     <row r="2811">
       <c r="A2811" t="s">
@@ -52917,21 +52867,11 @@
       <c r="C2811" t="n">
         <v>2009</v>
       </c>
-      <c r="D2811" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="E2811" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="F2811" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="G2811" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="H2811" t="n">
-        <v>36.32</v>
-      </c>
+      <c r="D2811"/>
+      <c r="E2811"/>
+      <c r="F2811"/>
+      <c r="G2811"/>
+      <c r="H2811"/>
     </row>
     <row r="2812">
       <c r="A2812" t="s">
@@ -52944,19 +52884,19 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>10.21</v>
+        <v>5.77</v>
       </c>
       <c r="E2812" t="n">
-        <v>14.31</v>
+        <v>11.38</v>
       </c>
       <c r="F2812" t="n">
-        <v>17.93</v>
+        <v>16.19</v>
       </c>
       <c r="G2812" t="n">
-        <v>22.38</v>
+        <v>22.58</v>
       </c>
       <c r="H2812" t="n">
-        <v>35.17</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="2813">
@@ -53049,11 +52989,21 @@
       <c r="C2818" t="n">
         <v>2002</v>
       </c>
-      <c r="D2818"/>
-      <c r="E2818"/>
-      <c r="F2818"/>
-      <c r="G2818"/>
-      <c r="H2818"/>
+      <c r="D2818" t="n">
+        <v>8.78</v>
+      </c>
+      <c r="E2818" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F2818" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="G2818" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="H2818" t="n">
+        <v>37.98</v>
+      </c>
     </row>
     <row r="2819">
       <c r="A2819" t="s">
@@ -53065,11 +53015,21 @@
       <c r="C2819" t="n">
         <v>2003</v>
       </c>
-      <c r="D2819"/>
-      <c r="E2819"/>
-      <c r="F2819"/>
-      <c r="G2819"/>
-      <c r="H2819"/>
+      <c r="D2819" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E2819" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F2819" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="G2819" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="H2819" t="n">
+        <v>37.98</v>
+      </c>
     </row>
     <row r="2820">
       <c r="A2820" t="s">
@@ -53082,19 +53042,19 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>6.51</v>
+        <v>8.79</v>
       </c>
       <c r="E2820" t="n">
-        <v>11.39</v>
+        <v>13.39</v>
       </c>
       <c r="F2820" t="n">
-        <v>15.72</v>
+        <v>17.29</v>
       </c>
       <c r="G2820" t="n">
-        <v>21.95</v>
+        <v>22.67</v>
       </c>
       <c r="H2820" t="n">
-        <v>44.43</v>
+        <v>37.86</v>
       </c>
     </row>
     <row r="2821">
@@ -53107,11 +53067,21 @@
       <c r="C2821" t="n">
         <v>2005</v>
       </c>
-      <c r="D2821"/>
-      <c r="E2821"/>
-      <c r="F2821"/>
-      <c r="G2821"/>
-      <c r="H2821"/>
+      <c r="D2821" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="E2821" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="F2821" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="G2821" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="H2821" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2822">
       <c r="A2822" t="s">
@@ -53123,11 +53093,21 @@
       <c r="C2822" t="n">
         <v>2006</v>
       </c>
-      <c r="D2822"/>
-      <c r="E2822"/>
-      <c r="F2822"/>
-      <c r="G2822"/>
-      <c r="H2822"/>
+      <c r="D2822" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="E2822" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="F2822" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="G2822" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="H2822" t="n">
+        <v>38.61</v>
+      </c>
     </row>
     <row r="2823">
       <c r="A2823" t="s">
@@ -53140,19 +53120,19 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>5.65</v>
+        <v>8.77</v>
       </c>
       <c r="E2823" t="n">
-        <v>11.36</v>
+        <v>13.12</v>
       </c>
       <c r="F2823" t="n">
-        <v>16.3</v>
+        <v>17.15</v>
       </c>
       <c r="G2823" t="n">
-        <v>22.76</v>
+        <v>22.37</v>
       </c>
       <c r="H2823" t="n">
-        <v>43.93</v>
+        <v>38.59</v>
       </c>
     </row>
     <row r="2824">
@@ -53165,11 +53145,21 @@
       <c r="C2824" t="n">
         <v>2008</v>
       </c>
-      <c r="D2824"/>
-      <c r="E2824"/>
-      <c r="F2824"/>
-      <c r="G2824"/>
-      <c r="H2824"/>
+      <c r="D2824" t="n">
+        <v>9.63</v>
+      </c>
+      <c r="E2824" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="F2824" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="G2824" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="H2824" t="n">
+        <v>36.38</v>
+      </c>
     </row>
     <row r="2825">
       <c r="A2825" t="s">
@@ -53181,11 +53171,21 @@
       <c r="C2825" t="n">
         <v>2009</v>
       </c>
-      <c r="D2825"/>
-      <c r="E2825"/>
-      <c r="F2825"/>
-      <c r="G2825"/>
-      <c r="H2825"/>
+      <c r="D2825" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="E2825" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="F2825" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="G2825" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="H2825" t="n">
+        <v>36.32</v>
+      </c>
     </row>
     <row r="2826">
       <c r="A2826" t="s">
@@ -53198,19 +53198,19 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>5.77</v>
+        <v>10.21</v>
       </c>
       <c r="E2826" t="n">
-        <v>11.38</v>
+        <v>14.31</v>
       </c>
       <c r="F2826" t="n">
-        <v>16.19</v>
+        <v>17.93</v>
       </c>
       <c r="G2826" t="n">
-        <v>22.58</v>
+        <v>22.38</v>
       </c>
       <c r="H2826" t="n">
-        <v>44.08</v>
+        <v>35.17</v>
       </c>
     </row>
     <row r="2827">
